--- a/docs/cms5/项目进度.xlsx
+++ b/docs/cms5/项目进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="可视化专题" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +87,6 @@
     <t>未完成</t>
   </si>
   <si>
-    <t>未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基础功能项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成60%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,9 +143,42 @@
   </si>
   <si>
     <t>进行中</t>
-  </si>
-  <si>
-    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结束:2010-08-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始(方案未定)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始(方案未定)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成75%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -219,7 +244,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,6 +269,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -259,7 +296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,22 +318,34 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -593,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -604,22 +653,33 @@
     <col min="1" max="1" width="22.375" customWidth="1"/>
     <col min="2" max="2" width="30.75" customWidth="1"/>
     <col min="3" max="3" width="41.25" customWidth="1"/>
+    <col min="4" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.1" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" ht="23.1" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1">
+      <c r="D1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -627,8 +687,12 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1">
+      <c r="D2" s="13"/>
+      <c r="E2" s="15">
+        <v>40388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1">
       <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -636,8 +700,12 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1">
+      <c r="D3" s="13"/>
+      <c r="E3" s="15">
+        <v>40403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -645,8 +713,12 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1">
+      <c r="D4" s="13"/>
+      <c r="E4" s="15">
+        <v>40401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
         <v>8</v>
@@ -654,8 +726,12 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1">
+      <c r="D5" s="13"/>
+      <c r="E5" s="15">
+        <v>40399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -663,8 +739,12 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1">
+      <c r="D6" s="13"/>
+      <c r="E6" s="15">
+        <v>40395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>10</v>
@@ -672,8 +752,12 @@
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1">
+      <c r="D7" s="13"/>
+      <c r="E7" s="15">
+        <v>40394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -681,26 +765,36 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1">
+      <c r="D8" s="13"/>
+      <c r="E8" s="15">
+        <v>40408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1">
+        <v>34</v>
+      </c>
+      <c r="D9" s="14">
+        <v>40422</v>
+      </c>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1">
+        <v>39</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>14</v>
@@ -708,10 +802,14 @@
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1">
+      <c r="D11" s="14">
+        <v>40427</v>
+      </c>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>15</v>
@@ -719,17 +817,25 @@
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="18" customHeight="1">
+      <c r="D12" s="13"/>
+      <c r="E12" s="15">
+        <v>40407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18" customHeight="1">
+        <v>40</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:6" ht="18" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>17</v>
@@ -737,17 +843,25 @@
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="18" customHeight="1">
-      <c r="A15" s="11" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="15">
+        <v>40407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D15" s="14">
+        <v>40427</v>
+      </c>
+      <c r="E15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -764,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -777,82 +891,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1">
-      <c r="A2" s="12" t="s">
+    <row r="4" spans="1:4" ht="18" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="A5" s="11"/>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D7" s="1"/>
     </row>

--- a/docs/cms5/项目进度.xlsx
+++ b/docs/cms5/项目进度.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="可视化专题" sheetId="1" r:id="rId1"/>
     <sheet name="碎片编辑器" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="67界威尼斯电影节专题交互" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,22 @@
   </si>
   <si>
     <t>完成75%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67界威尼斯电影节专题JS交互</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -296,7 +312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,6 +340,18 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -336,16 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -678,7 +697,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -687,128 +706,128 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="15">
+      <c r="D2" s="9"/>
+      <c r="E2" s="11">
         <v>40388</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="9"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="15">
+      <c r="D3" s="9"/>
+      <c r="E3" s="11">
         <v>40403</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="9"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15">
+      <c r="D4" s="9"/>
+      <c r="E4" s="11">
         <v>40401</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="9"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="15">
+      <c r="D5" s="9"/>
+      <c r="E5" s="11">
         <v>40399</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="9"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="15">
+      <c r="D6" s="9"/>
+      <c r="E6" s="11">
         <v>40395</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1">
-      <c r="A7" s="9"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="15">
+      <c r="D7" s="9"/>
+      <c r="E7" s="11">
         <v>40394</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1">
-      <c r="A8" s="9"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="15">
+      <c r="D8" s="9"/>
+      <c r="E8" s="11">
         <v>40408</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1">
-      <c r="A9" s="9"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="10">
         <v>40422</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1">
-      <c r="A10" s="9"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="16"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1">
-      <c r="A11" s="9"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="10">
         <v>40427</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -817,34 +836,34 @@
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="15">
+      <c r="D12" s="9"/>
+      <c r="E12" s="11">
         <v>40407</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1">
-      <c r="A13" s="10"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1">
-      <c r="A14" s="10"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="15">
+      <c r="D14" s="9"/>
+      <c r="E14" s="11">
         <v>40407</v>
       </c>
     </row>
@@ -858,10 +877,10 @@
       <c r="C15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="10">
         <v>40427</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -905,7 +924,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -919,7 +938,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
-      <c r="A3" s="11"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
@@ -931,7 +950,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
-      <c r="A4" s="11"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
@@ -943,7 +962,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
-      <c r="A5" s="11"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
@@ -953,7 +972,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1">
-      <c r="A6" s="12"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
@@ -963,7 +982,7 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1">
-      <c r="A7" s="12"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1011,12 +1030,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.375" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="17">
+        <v>40421</v>
+      </c>
+      <c r="C2" s="17">
+        <v>40421</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
